--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -1516,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1719,7 +1719,9 @@
       <c r="M3" s="12">
         <v>1</v>
       </c>
-      <c r="N3" s="12"/>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
@@ -1763,7 +1765,9 @@
       <c r="M4" s="12">
         <v>1</v>
       </c>
-      <c r="N4" s="12"/>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -1807,7 +1811,9 @@
       <c r="M5" s="12">
         <v>1</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="12">
+        <v>0</v>
+      </c>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
@@ -1847,7 +1853,9 @@
       <c r="M6" s="12">
         <v>1</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
@@ -1887,7 +1895,9 @@
       <c r="M7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -1927,7 +1937,9 @@
       <c r="M8" s="12">
         <v>1</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="12">
+        <v>0</v>
+      </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1967,7 +1979,9 @@
       <c r="M9" s="12">
         <v>1</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="12">
+        <v>0</v>
+      </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -2007,7 +2021,9 @@
       <c r="M10" s="12">
         <v>1</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="12">
+        <v>0</v>
+      </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
@@ -2047,7 +2063,9 @@
       <c r="M11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="12">
+        <v>0</v>
+      </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>名字</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>abilities/public/public_attribute</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
   </si>
   <si>
     <t>public_arms</t>
@@ -1516,8 +1519,10 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1774,7 +1779,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
@@ -1785,10 +1790,10 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A5" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>52</v>
@@ -1800,7 +1805,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1831,17 +1836,17 @@
     </row>
     <row r="6" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A6" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1873,17 +1878,17 @@
     </row>
     <row r="7" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1915,17 +1920,17 @@
     </row>
     <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A8" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1957,17 +1962,17 @@
     </row>
     <row r="9" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A9" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1999,17 +2004,17 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A10" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -2041,17 +2046,17 @@
     </row>
     <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
       <c r="A11" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>名字</t>
   </si>
@@ -38,46 +38,86 @@
     <t>介绍</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>元素类型
+1火2冰3风4雷5光6暗</t>
+  </si>
+  <si>
+    <t>禁用</t>
+  </si>
+  <si>
+    <t>物品品质</t>
+  </si>
+  <si>
+    <t>出现概率（同品质有度有效 自动稀释）</t>
+  </si>
+  <si>
+    <t>冷却</t>
+  </si>
+  <si>
     <t>图标</t>
   </si>
   <si>
+    <t>物品KV值</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>伤害公式</t>
+  </si>
+  <si>
+    <t>魔法消耗</t>
+  </si>
+  <si>
+    <t>物品主动距离</t>
+  </si>
+  <si>
     <t>基类</t>
   </si>
   <si>
-    <t>脚本路径</t>
-  </si>
-  <si>
-    <t>技能键值</t>
-  </si>
-  <si>
-    <t>最大等级</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>魔法消耗</t>
-  </si>
-  <si>
-    <t>施法范围</t>
-  </si>
-  <si>
-    <t>引导</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>队伍</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>目标标签</t>
-  </si>
-  <si>
-    <t>无视魔免</t>
+    <t>脚本</t>
+  </si>
+  <si>
+    <t>模型</t>
+  </si>
+  <si>
+    <t>可丢弃</t>
+  </si>
+  <si>
+    <t>物品属性</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>攻击力</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>法力值</t>
+  </si>
+  <si>
+    <t>生命恢复</t>
+  </si>
+  <si>
+    <t>法力回复</t>
   </si>
   <si>
     <t>name</t>
@@ -89,73 +129,132 @@
     <t>#LocDOTA_Tooltip_Ability_{}_Description</t>
   </si>
   <si>
+    <t>#LocDOTA_Tooltip_Ability_{}_Lore</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>MaxLevel</t>
+  </si>
+  <si>
+    <t>AbilityCooldown</t>
+  </si>
+  <si>
     <t>AbilityTextureName</t>
   </si>
   <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>DamageFormula</t>
+  </si>
+  <si>
+    <t>AbilityManaCost</t>
+  </si>
+  <si>
+    <t>AbilityCastRange</t>
+  </si>
+  <si>
     <t>BaseClass</t>
   </si>
   <si>
     <t>ScriptFile</t>
   </si>
   <si>
-    <t>AbilityValues[{]</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>[}]</t>
-  </si>
-  <si>
-    <t>MaxLevel</t>
-  </si>
-  <si>
-    <t>AbilityCooldown</t>
-  </si>
-  <si>
-    <t>AbilityManaCost</t>
-  </si>
-  <si>
-    <t>AbilityCastRange</t>
-  </si>
-  <si>
-    <t>AbilityChannelTime</t>
-  </si>
-  <si>
-    <t>AbilityCharges</t>
-  </si>
-  <si>
-    <t>AbilityChargeRestoreTime</t>
+    <t>Model</t>
   </si>
   <si>
     <t>AbilityBehavior</t>
   </si>
   <si>
-    <t>AbilityUnitTargetTeam</t>
-  </si>
-  <si>
-    <t>AbilityUnitTargetType</t>
-  </si>
-  <si>
-    <t>AbilityUnitTargetFlags</t>
-  </si>
-  <si>
-    <t>SpellImmunityType</t>
-  </si>
-  <si>
-    <t>AbilityCastAnimation</t>
-  </si>
-  <si>
-    <t>IsOnCastBar</t>
+    <t>ItemDroppable</t>
+  </si>
+  <si>
+    <t>AttributeValues[{]</t>
+  </si>
+  <si>
+    <t>Strength</t>
+  </si>
+  <si>
+    <t>Agility</t>
+  </si>
+  <si>
+    <t>Intellect</t>
+  </si>
+  <si>
+    <t>AttackDamage</t>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>HealthPoints</t>
+  </si>
+  <si>
+    <t>ManaPoints</t>
+  </si>
+  <si>
+    <t>HealthRegen</t>
+  </si>
+  <si>
+    <t>ManaRegen</t>
+  </si>
+  <si>
+    <t>public_template</t>
+  </si>
+  <si>
+    <t>技能模版</t>
+  </si>
+  <si>
+    <t>abaddon_borrowed_time</t>
+  </si>
+  <si>
+    <t>ability_value 1</t>
+  </si>
+  <si>
+    <t>10+0</t>
+  </si>
+  <si>
+    <t>ability_datadriven</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
+  </si>
+  <si>
+    <t>{
+"Base" "10"
+}</t>
   </si>
   <si>
     <t>public_phase_move</t>
@@ -167,18 +266,12 @@
     <t>无视单位碰撞</t>
   </si>
   <si>
-    <t>abaddon_borrowed_time</t>
-  </si>
-  <si>
     <t>ability_lua</t>
   </si>
   <si>
     <t>abilities/public/public_phase_move</t>
   </si>
   <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
-  </si>
-  <si>
     <t>public_attribute</t>
   </si>
   <si>
@@ -213,9 +306,6 @@
   </si>
   <si>
     <t>invoker_empty1</t>
-  </si>
-  <si>
-    <t>ability_datadriven</t>
   </si>
   <si>
     <t>public_null_2</t>
@@ -269,28 +359,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Microsoft YaHei"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -438,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,12 +543,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -650,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -659,55 +743,84 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
-      <right style="thin">
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
+      <left style="thick">
+        <color rgb="FF595959"/>
       </left>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
@@ -730,21 +843,77 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
         <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
@@ -755,98 +924,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF5A5A5A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
+      <right style="thick">
+        <color rgb="FF595959"/>
       </right>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,7 +1061,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -986,186 +1073,233 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1221,7 +1355,121 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 4" xfId="49"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="6" tint="0.8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.05"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE6E6E6"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF5A5A5A"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF5A5A5A"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5A5A5A"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5A5A5A"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF5A5A5A"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom/>
+        <vertical style="medium">
+          <color theme="0"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border>
+        <left style="thick">
+          <color rgb="FF595959"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF595959"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF595959"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF595959"/>
+        </bottom>
+        <vertical style="medium">
+          <color rgb="FFFFFFFF"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{973121C6-F6E5-425C-B97E-E14122A1C988}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1517,576 +1765,1010 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="T5" sqref="T5"/>
+      <selection pane="topRight" activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="25.8416666666667" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="4" width="50.625" customWidth="1"/>
-    <col min="5" max="5" width="21.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="37.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="17.175" customWidth="1"/>
-    <col min="8" max="8" width="25.5083333333333" customWidth="1"/>
-    <col min="9" max="9" width="15.675" customWidth="1"/>
-    <col min="10" max="10" width="13.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="13.175" customWidth="1"/>
-    <col min="12" max="12" width="3.625" customWidth="1"/>
-    <col min="13" max="13" width="13.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="21.675" customWidth="1"/>
-    <col min="15" max="15" width="21.5083333333333" customWidth="1"/>
-    <col min="16" max="16" width="21.8416666666667" customWidth="1"/>
-    <col min="17" max="17" width="24.0083333333333" customWidth="1"/>
-    <col min="18" max="18" width="17.675" customWidth="1"/>
-    <col min="19" max="19" width="14.625" customWidth="1"/>
-    <col min="20" max="20" width="50.625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="32.5083333333333" customWidth="1"/>
-    <col min="22" max="22" width="27.175" customWidth="1"/>
-    <col min="23" max="23" width="40.5083333333333" customWidth="1"/>
-    <col min="24" max="24" width="23.675" customWidth="1"/>
-    <col min="25" max="25" width="32.3416666666667" customWidth="1"/>
-    <col min="26" max="26" width="15.5083333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="22.3416666666667" customWidth="1"/>
+    <col min="3" max="3" width="28.1416666666667" customWidth="1"/>
+    <col min="4" max="4" width="26.5083333333333" customWidth="1"/>
+    <col min="5" max="5" width="9.34166666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.0083333333333" customWidth="1"/>
+    <col min="7" max="8" width="9.34166666666667" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
+    <col min="10" max="10" width="9.675" customWidth="1"/>
+    <col min="11" max="11" width="15.175" customWidth="1"/>
+    <col min="12" max="12" width="28.1416666666667" customWidth="1"/>
+    <col min="13" max="13" width="14.175" customWidth="1"/>
+    <col min="14" max="14" width="13.5083333333333" customWidth="1"/>
+    <col min="15" max="16" width="9.34166666666667" customWidth="1"/>
+    <col min="17" max="17" width="5.675" customWidth="1"/>
+    <col min="18" max="19" width="3.24166666666667" customWidth="1"/>
+    <col min="20" max="20" width="5.675" style="2" customWidth="1"/>
+    <col min="21" max="21" width="5.675" customWidth="1"/>
+    <col min="22" max="22" width="9.34166666666667" customWidth="1"/>
+    <col min="23" max="23" width="15.3416666666667" customWidth="1"/>
+    <col min="24" max="24" width="15.5083333333333" customWidth="1"/>
+    <col min="25" max="25" width="16.0083333333333" customWidth="1"/>
+    <col min="26" max="26" width="16.3416666666667" customWidth="1"/>
+    <col min="27" max="27" width="28.0083333333333" customWidth="1"/>
+    <col min="28" max="28" width="7.175" customWidth="1"/>
+    <col min="29" max="29" width="28.1416666666667" customWidth="1"/>
+    <col min="30" max="30" width="14.175" customWidth="1"/>
+    <col min="31" max="31" width="16.3416666666667" customWidth="1"/>
+    <col min="32" max="32" width="11.0083333333333" customWidth="1"/>
+    <col min="33" max="33" width="7.175" customWidth="1"/>
+    <col min="34" max="34" width="8.675" customWidth="1"/>
+    <col min="35" max="35" width="14.0083333333333" customWidth="1"/>
+    <col min="36" max="36" width="12.175" customWidth="1"/>
+    <col min="37" max="37" width="11.5083333333333" customWidth="1"/>
+    <col min="38" max="38" width="12.5083333333333" customWidth="1"/>
+    <col min="39" max="39" width="11.675" customWidth="1"/>
+    <col min="40" max="40" width="12.675" customWidth="1"/>
+    <col min="41" max="41" width="11.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:26">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:43">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="K1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17" t="s">
+      <c r="W1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="X1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="Y1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Z1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="AA1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="21"/>
+      <c r="AB1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO1" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="33"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="39" customHeight="1" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:42">
       <c r="A2" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="F2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="G2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="I2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="20" t="s">
+      <c r="J2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="K2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="L2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Z2" s="22" t="s">
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="N2" s="24">
+        <v>1</v>
+      </c>
+      <c r="O2" s="24">
+        <v>2</v>
+      </c>
+      <c r="P2" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="24">
+        <v>4</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="35" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12">
+    <row r="3" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12">
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12">
         <v>1</v>
       </c>
-      <c r="N3" s="12">
-        <v>0</v>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
-      <c r="T3" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="T3" s="28"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="23"/>
+      <c r="W3" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="36"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A4" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12">
+    <row r="4" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
-      <c r="N4" s="12">
-        <v>0</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="23"/>
+      <c r="I4" s="16">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="37"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12">
+    <row r="5" ht="68" customHeight="1" spans="1:41">
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12">
         <v>1</v>
       </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="T5" s="28"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
-      <c r="Z5" s="23"/>
+      <c r="Z5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="36"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12">
+    <row r="6" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
-      <c r="N6" s="12">
-        <v>0</v>
-      </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="23"/>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>1</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="37"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A7" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12">
+    <row r="7" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
         <v>1</v>
       </c>
-      <c r="N7" s="12">
-        <v>0</v>
-      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="T7" s="28"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
-      <c r="Z7" s="23"/>
+      <c r="Z7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="36"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12">
+    <row r="8" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A8" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="N8" s="12">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="23"/>
+      <c r="I8" s="16">
+        <v>0</v>
+      </c>
+      <c r="J8" s="16">
+        <v>1</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="16"/>
+      <c r="AJ8" s="16"/>
+      <c r="AK8" s="16"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="37"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12">
+    <row r="9" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
         <v>1</v>
       </c>
-      <c r="N9" s="12">
-        <v>0</v>
-      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12">
+        <v>0</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="T9" s="28"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12"/>
-      <c r="Z9" s="23"/>
+      <c r="Z9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="36"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12">
+    <row r="10" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A10" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
         <v>1</v>
       </c>
-      <c r="N10" s="12">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="23"/>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="16"/>
+      <c r="AJ10" s="16"/>
+      <c r="AK10" s="16"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="37"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="1:26">
-      <c r="A11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12">
+    <row r="11" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="N11" s="12">
-        <v>0</v>
-      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="13" t="s">
-        <v>49</v>
-      </c>
+      <c r="T11" s="28"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="23"/>
+      <c r="Z11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="36"/>
+    </row>
+    <row r="12" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="38"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A2">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">
+      <formula>NOT(ISERROR(SEARCH("arms_t4",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="between" text="arms_t3">
+      <formula>NOT(ISERROR(SEARCH("arms_t3",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="arms_t2">
+      <formula>NOT(ISERROR(SEARCH("arms_t2",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="between" text="arms_t1">
+      <formula>NOT(ISERROR(SEARCH("arms_t1",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H2">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I2">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -296,7 +296,7 @@
     <t>物品兵器效果</t>
   </si>
   <si>
-    <t>abilities/public/public_arms</t>
+    <t>abilities/arms/base_arms_ability</t>
   </si>
   <si>
     <t>public_null_1</t>
@@ -1186,7 +1186,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1262,22 +1262,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1464,7 +1452,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{973121C6-F6E5-425C-B97E-E14122A1C988}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3C5E0059-5DB2-4F77-A623-1955832BEA10}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1765,12 +1753,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:AQ13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="W4" sqref="W4"/>
+      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1916,11 +1904,11 @@
       <c r="AN1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="31" t="s">
+      <c r="AO1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="33"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="29"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:42">
       <c r="A2" s="6" t="s">
@@ -1974,22 +1962,22 @@
       <c r="Q2" s="24">
         <v>4</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="26" t="s">
         <v>48</v>
       </c>
       <c r="X2" s="24" t="s">
@@ -2004,7 +1992,7 @@
       <c r="AA2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="27" t="s">
+      <c r="AB2" s="26" t="s">
         <v>53</v>
       </c>
       <c r="AC2" s="8" t="s">
@@ -2043,10 +2031,10 @@
       <c r="AN2" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="34" t="s">
+      <c r="AO2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="35" t="s">
+      <c r="AP2" s="31" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2082,7 +2070,7 @@
         <v>69</v>
       </c>
       <c r="M3" s="12"/>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="12" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="12"/>
@@ -2090,7 +2078,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
-      <c r="T3" s="28"/>
+      <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12" t="s">
@@ -2112,7 +2100,7 @@
       </c>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="12" t="s">
         <v>74</v>
       </c>
       <c r="AG3" s="12"/>
@@ -2123,7 +2111,7 @@
       <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
-      <c r="AO3" s="36"/>
+      <c r="AO3" s="32"/>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:41">
       <c r="A4" s="13" t="s">
@@ -2165,7 +2153,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-      <c r="T4" s="29"/>
+      <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -2192,7 +2180,7 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="37"/>
+      <c r="AO4" s="33"/>
     </row>
     <row r="5" ht="68" customHeight="1" spans="1:41">
       <c r="A5" s="9" t="s">
@@ -2234,7 +2222,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-      <c r="T5" s="28"/>
+      <c r="T5" s="12"/>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
@@ -2261,7 +2249,7 @@
       <c r="AL5" s="12"/>
       <c r="AM5" s="12"/>
       <c r="AN5" s="12"/>
-      <c r="AO5" s="36"/>
+      <c r="AO5" s="32"/>
     </row>
     <row r="6" ht="51.5" customHeight="1" spans="1:41">
       <c r="A6" s="13" t="s">
@@ -2303,7 +2291,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
       <c r="S6" s="16"/>
-      <c r="T6" s="29"/>
+      <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
@@ -2330,7 +2318,7 @@
       <c r="AL6" s="16"/>
       <c r="AM6" s="16"/>
       <c r="AN6" s="16"/>
-      <c r="AO6" s="37"/>
+      <c r="AO6" s="33"/>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:41">
       <c r="A7" s="9" t="s">
@@ -2370,7 +2358,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="28"/>
+      <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
@@ -2395,7 +2383,7 @@
       <c r="AL7" s="12"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
-      <c r="AO7" s="36"/>
+      <c r="AO7" s="32"/>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:41">
       <c r="A8" s="13" t="s">
@@ -2435,7 +2423,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
-      <c r="T8" s="29"/>
+      <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
@@ -2460,7 +2448,7 @@
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
-      <c r="AO8" s="37"/>
+      <c r="AO8" s="33"/>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:41">
       <c r="A9" s="9" t="s">
@@ -2500,7 +2488,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
-      <c r="T9" s="28"/>
+      <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
@@ -2525,7 +2513,7 @@
       <c r="AL9" s="12"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="12"/>
-      <c r="AO9" s="36"/>
+      <c r="AO9" s="32"/>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:41">
       <c r="A10" s="13" t="s">
@@ -2565,7 +2553,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
-      <c r="T10" s="29"/>
+      <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
       <c r="W10" s="16"/>
@@ -2590,7 +2578,7 @@
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="16"/>
-      <c r="AO10" s="37"/>
+      <c r="AO10" s="33"/>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:41">
       <c r="A11" s="9" t="s">
@@ -2630,7 +2618,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="12"/>
-      <c r="T11" s="28"/>
+      <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
@@ -2655,7 +2643,7 @@
       <c r="AL11" s="12"/>
       <c r="AM11" s="12"/>
       <c r="AN11" s="12"/>
-      <c r="AO11" s="36"/>
+      <c r="AO11" s="32"/>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:41">
       <c r="A12" s="19" t="s">
@@ -2685,7 +2673,7 @@
       <c r="K12" s="22">
         <v>0</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="25" t="s">
         <v>91</v>
       </c>
       <c r="M12" s="22"/>
@@ -2695,7 +2683,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
-      <c r="T12" s="30"/>
+      <c r="T12" s="22"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
@@ -2706,7 +2694,7 @@
       </c>
       <c r="AA12" s="22"/>
       <c r="AB12" s="22"/>
-      <c r="AC12" s="26" t="s">
+      <c r="AC12" s="25" t="s">
         <v>73</v>
       </c>
       <c r="AD12" s="22"/>
@@ -2720,8 +2708,9 @@
       <c r="AL12" s="22"/>
       <c r="AM12" s="22"/>
       <c r="AN12" s="22"/>
-      <c r="AO12" s="38"/>
+      <c r="AO12" s="34"/>
     </row>
+    <row r="13" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>名字</t>
   </si>
@@ -48,7 +48,7 @@
     <t>禁用</t>
   </si>
   <si>
-    <t>物品品质</t>
+    <t>品质</t>
   </si>
   <si>
     <t>出现概率（同品质有度有效 自动稀释）</t>
@@ -257,6 +257,21 @@
 }</t>
   </si>
   <si>
+    <t>public_dummy</t>
+  </si>
+  <si>
+    <t>傀儡单位</t>
+  </si>
+  <si>
+    <t>ability_lua</t>
+  </si>
+  <si>
+    <t>abilities/public/public_dummy</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
+  </si>
+  <si>
     <t>public_phase_move</t>
   </si>
   <si>
@@ -266,9 +281,6 @@
     <t>无视单位碰撞</t>
   </si>
   <si>
-    <t>ability_lua</t>
-  </si>
-  <si>
     <t>abilities/public/public_phase_move</t>
   </si>
   <si>
@@ -285,9 +297,6 @@
   </si>
   <si>
     <t>abilities/public/public_attribute</t>
-  </si>
-  <si>
-    <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_HIDDEN</t>
   </si>
   <si>
     <t>public_arms</t>
@@ -734,7 +743,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -808,6 +817,15 @@
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -900,6 +918,15 @@
       <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
@@ -1061,7 +1088,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1073,34 +1100,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,7 +1213,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,31 +1256,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,32 +1301,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1452,7 +1494,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3C5E0059-5DB2-4F77-A623-1955832BEA10}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65121866-8BBC-4084-BC7E-AAA108F65A74}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1753,12 +1795,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="topRight" activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1788,7 +1830,7 @@
     <col min="26" max="26" width="16.3416666666667" customWidth="1"/>
     <col min="27" max="27" width="28.0083333333333" customWidth="1"/>
     <col min="28" max="28" width="7.175" customWidth="1"/>
-    <col min="29" max="29" width="28.1416666666667" customWidth="1"/>
+    <col min="29" max="29" width="50.125" customWidth="1"/>
     <col min="30" max="30" width="14.175" customWidth="1"/>
     <col min="31" max="31" width="16.3416666666667" customWidth="1"/>
     <col min="32" max="32" width="11.0083333333333" customWidth="1"/>
@@ -1830,7 +1872,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1853,10 +1895,10 @@
       <c r="W1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="27" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="5" t="s">
@@ -1904,11 +1946,11 @@
       <c r="AN1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AO1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="29"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="33"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:42">
       <c r="A2" s="6" t="s">
@@ -1941,7 +1983,7 @@
       <c r="J2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="28" t="s">
         <v>40</v>
       </c>
       <c r="L2" s="8" t="s">
@@ -1950,40 +1992,40 @@
       <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="24">
-        <v>1</v>
-      </c>
-      <c r="O2" s="24">
+      <c r="N2" s="28">
+        <v>1</v>
+      </c>
+      <c r="O2" s="28">
         <v>2</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="28">
         <v>3</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="28">
         <v>4</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="28" t="s">
         <v>50</v>
       </c>
       <c r="Z2" s="7" t="s">
@@ -1992,7 +2034,7 @@
       <c r="AA2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="26" t="s">
+      <c r="AB2" s="30" t="s">
         <v>53</v>
       </c>
       <c r="AC2" s="8" t="s">
@@ -2004,37 +2046,37 @@
       <c r="AE2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="24" t="s">
+      <c r="AG2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" s="24" t="s">
+      <c r="AH2" s="28" t="s">
         <v>59</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" s="24" t="s">
+      <c r="AK2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="AL2" s="24" t="s">
+      <c r="AL2" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="AM2" s="24" t="s">
+      <c r="AM2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AN2" s="24" t="s">
+      <c r="AN2" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="AP2" s="31" t="s">
+      <c r="AP2" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2052,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -2066,7 +2108,7 @@
       <c r="K3" s="12">
         <v>0</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="21" t="s">
         <v>69</v>
       </c>
       <c r="M3" s="12"/>
@@ -2095,7 +2137,7 @@
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-      <c r="AC3" s="17" t="s">
+      <c r="AC3" s="21" t="s">
         <v>73</v>
       </c>
       <c r="AD3" s="12"/>
@@ -2111,7 +2153,7 @@
       <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
-      <c r="AO3" s="32"/>
+      <c r="AO3" s="36"/>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:41">
       <c r="A4" s="13" t="s">
@@ -2120,16 +2162,14 @@
       <c r="B4" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>77</v>
-      </c>
+      <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="16">
-        <v>0</v>
+      <c r="G4" s="12">
+        <v>1</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -2160,14 +2200,14 @@
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AD4" s="16"/>
       <c r="AE4" s="16"/>
@@ -2180,537 +2220,606 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
-      <c r="AO4" s="33"/>
+      <c r="AO4" s="37"/>
     </row>
-    <row r="5" ht="68" customHeight="1" spans="1:41">
-      <c r="A5" s="9" t="s">
+    <row r="5" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
         <v>0</v>
       </c>
       <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
-        <v>1</v>
-      </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <v>1</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA5" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA5" s="10" t="s">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20"/>
+      <c r="AM5" s="20"/>
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="38"/>
+    </row>
+    <row r="6" ht="68" customHeight="1" spans="1:41">
+      <c r="A6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="17" t="s">
+      <c r="B6" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="32"/>
-    </row>
-    <row r="6" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A6" s="13" t="s">
+      <c r="C6" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>1</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" s="14" t="s">
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16"/>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="33"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="36"/>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12">
+      <c r="C7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
-        <v>1</v>
-      </c>
-      <c r="K7" s="12">
-        <v>0</v>
-      </c>
-      <c r="L7" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA7" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="17" t="s">
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
-      <c r="AN7" s="12"/>
-      <c r="AO7" s="32"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="20"/>
+      <c r="AM7" s="20"/>
+      <c r="AN7" s="20"/>
+      <c r="AO7" s="38"/>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="14" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="15" t="s">
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="16"/>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="33"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="36"/>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="20">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12">
-        <v>1</v>
-      </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="10" t="s">
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="17" t="s">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
-      <c r="AN9" s="12"/>
-      <c r="AO9" s="32"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20"/>
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="38"/>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="14" t="s">
+      <c r="B10" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="15" t="s">
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="33"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="36"/>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="B11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20">
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
-        <v>1</v>
-      </c>
-      <c r="K11" s="12">
-        <v>0</v>
-      </c>
-      <c r="L11" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>1</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="17" t="s">
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
-      <c r="AN11" s="12"/>
-      <c r="AO11" s="32"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="38"/>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A12" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22">
-        <v>0</v>
-      </c>
-      <c r="J12" s="22">
-        <v>1</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="20" t="s">
+      <c r="B12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="25" t="s">
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="22"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="22"/>
-      <c r="AM12" s="22"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="34"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="36"/>
     </row>
-    <row r="13" ht="14.25"/>
+    <row r="13" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A13" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="39"/>
+    </row>
+    <row r="14" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
   <si>
     <t>名字</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>空技能#6</t>
+  </si>
+  <si>
+    <t>public_creature</t>
+  </si>
+  <si>
+    <t>怪物基础</t>
+  </si>
+  <si>
+    <t>abilities/public/public_creature</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1503,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65121866-8BBC-4084-BC7E-AAA108F65A74}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{12156163-C5BE-4939-96C9-3292D3D5E1D4}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1795,12 +1804,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X9" sqref="X9"/>
+      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2819,7 +2828,74 @@
       <c r="AN13" s="26"/>
       <c r="AO13" s="39"/>
     </row>
-    <row r="14" ht="14.25"/>
+    <row r="14" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A14" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0</v>
+      </c>
+      <c r="L14" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="26"/>
+      <c r="AM14" s="26"/>
+      <c r="AN14" s="26"/>
+      <c r="AO14" s="39"/>
+    </row>
+    <row r="15" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>名字</t>
   </si>
@@ -354,6 +354,15 @@
   </si>
   <si>
     <t>abilities/public/public_creature</t>
+  </si>
+  <si>
+    <t>public_npc_interact</t>
+  </si>
+  <si>
+    <t>NPC单位</t>
+  </si>
+  <si>
+    <t>abilities/public/public_npc_interact</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{12156163-C5BE-4939-96C9-3292D3D5E1D4}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5475D208-BF79-419C-B99D-16A35D1E1C37}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1804,12 +1813,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ15"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2103,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="12">
         <v>1</v>
@@ -2178,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="16">
         <v>1</v>
@@ -2247,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="20">
         <v>1</v>
@@ -2316,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="12">
         <v>1</v>
@@ -2385,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="20">
         <v>1</v>
@@ -2452,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="12">
         <v>1</v>
@@ -2517,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="20">
         <v>1</v>
@@ -2582,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="12">
         <v>1</v>
@@ -2647,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="20">
         <v>1</v>
@@ -2712,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="12">
         <v>1</v>
@@ -2777,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="26">
         <v>1</v>
@@ -2842,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="26">
         <v>1</v>
@@ -2895,7 +2904,74 @@
       <c r="AN14" s="26"/>
       <c r="AO14" s="39"/>
     </row>
-    <row r="15" ht="14.25"/>
+    <row r="15" ht="51.5" customHeight="1" spans="1:41">
+      <c r="A15" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>1</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="26"/>
+      <c r="AI15" s="26"/>
+      <c r="AJ15" s="26"/>
+      <c r="AK15" s="26"/>
+      <c r="AL15" s="26"/>
+      <c r="AM15" s="26"/>
+      <c r="AN15" s="26"/>
+      <c r="AO15" s="39"/>
+    </row>
+    <row r="16" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -1512,7 +1512,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5475D208-BF79-419C-B99D-16A35D1E1C37}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65125BC2-0B7B-4AA6-B4F1-820C0123032D}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1815,10 +1815,10 @@
   <sheetPr/>
   <dimension ref="A1:AQ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="AB7" s="20"/>
       <c r="AC7" s="19" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AD7" s="20"/>
       <c r="AE7" s="20"/>

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
   <si>
     <t>名字</t>
   </si>
@@ -66,9 +66,6 @@
     <t>xxx</t>
   </si>
   <si>
-    <t>伤害公式</t>
-  </si>
-  <si>
     <t>魔法消耗</t>
   </si>
   <si>
@@ -81,45 +78,6 @@
     <t>脚本</t>
   </si>
   <si>
-    <t>模型</t>
-  </si>
-  <si>
-    <t>可丢弃</t>
-  </si>
-  <si>
-    <t>物品属性</t>
-  </si>
-  <si>
-    <t>力</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
-  <si>
-    <t>攻击力</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>法力值</t>
-  </si>
-  <si>
-    <t>生命恢复</t>
-  </si>
-  <si>
-    <t>法力回复</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -174,9 +132,6 @@
     <t>[}]</t>
   </si>
   <si>
-    <t>DamageFormula</t>
-  </si>
-  <si>
     <t>AbilityManaCost</t>
   </si>
   <si>
@@ -189,48 +144,9 @@
     <t>ScriptFile</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>AbilityBehavior</t>
   </si>
   <si>
-    <t>ItemDroppable</t>
-  </si>
-  <si>
-    <t>AttributeValues[{]</t>
-  </si>
-  <si>
-    <t>Strength</t>
-  </si>
-  <si>
-    <t>Agility</t>
-  </si>
-  <si>
-    <t>Intellect</t>
-  </si>
-  <si>
-    <t>AttackDamage</t>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>HealthPoints</t>
-  </si>
-  <si>
-    <t>ManaPoints</t>
-  </si>
-  <si>
-    <t>HealthRegen</t>
-  </si>
-  <si>
-    <t>ManaRegen</t>
-  </si>
-  <si>
     <t>public_template</t>
   </si>
   <si>
@@ -243,18 +159,10 @@
     <t>ability_value 1</t>
   </si>
   <si>
-    <t>10+0</t>
-  </si>
-  <si>
     <t>ability_datadriven</t>
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_PASSIVE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE</t>
-  </si>
-  <si>
-    <t>{
-"Base" "10"
-}</t>
   </si>
   <si>
     <t>public_dummy</t>
@@ -375,7 +283,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,12 +310,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -761,7 +663,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -909,80 +811,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1100,138 +928,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,31 +1151,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1512,7 +1315,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{65125BC2-0B7B-4AA6-B4F1-820C0123032D}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66EF2686-9FAC-424C-B5D3-BD1D76DD350B}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1813,12 +1616,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AQ16"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1842,28 +1645,14 @@
     <col min="20" max="20" width="5.675" style="2" customWidth="1"/>
     <col min="21" max="21" width="5.675" customWidth="1"/>
     <col min="22" max="22" width="9.34166666666667" customWidth="1"/>
-    <col min="23" max="23" width="15.3416666666667" customWidth="1"/>
-    <col min="24" max="24" width="15.5083333333333" customWidth="1"/>
-    <col min="25" max="25" width="16.0083333333333" customWidth="1"/>
-    <col min="26" max="26" width="16.3416666666667" customWidth="1"/>
-    <col min="27" max="27" width="28.0083333333333" customWidth="1"/>
-    <col min="28" max="28" width="7.175" customWidth="1"/>
-    <col min="29" max="29" width="50.125" customWidth="1"/>
-    <col min="30" max="30" width="14.175" customWidth="1"/>
-    <col min="31" max="31" width="16.3416666666667" customWidth="1"/>
-    <col min="32" max="32" width="11.0083333333333" customWidth="1"/>
-    <col min="33" max="33" width="7.175" customWidth="1"/>
-    <col min="34" max="34" width="8.675" customWidth="1"/>
-    <col min="35" max="35" width="14.0083333333333" customWidth="1"/>
-    <col min="36" max="36" width="12.175" customWidth="1"/>
-    <col min="37" max="37" width="11.5083333333333" customWidth="1"/>
-    <col min="38" max="38" width="12.5083333333333" customWidth="1"/>
-    <col min="39" max="39" width="11.675" customWidth="1"/>
-    <col min="40" max="40" width="12.675" customWidth="1"/>
-    <col min="41" max="41" width="11.8416666666667" customWidth="1"/>
+    <col min="23" max="23" width="15.5083333333333" customWidth="1"/>
+    <col min="24" max="24" width="16.0083333333333" customWidth="1"/>
+    <col min="25" max="25" width="16.3416666666667" customWidth="1"/>
+    <col min="26" max="26" width="28.0083333333333" customWidth="1"/>
+    <col min="27" max="27" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:43">
+    <row r="1" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1910,105 +1699,61 @@
       <c r="V1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="27" t="s">
         <v>12</v>
       </c>
       <c r="X1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AA1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AC1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD1" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="5" t="s">
+      <c r="K2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="L2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="AO1" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="33"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:42">
-      <c r="A2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="N2" s="28">
         <v>1</v>
@@ -2023,87 +1768,42 @@
         <v>4</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="S2" s="30" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="T2" s="30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="U2" s="30" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="V2" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>34</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ2" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AK2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AL2" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM2" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="AN2" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO2" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="35" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:41">
+    <row r="3" ht="51.5" customHeight="1" spans="1:27">
       <c r="A3" s="9" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -2127,11 +1827,11 @@
         <v>0</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M3" s="12"/>
       <c r="N3" s="12" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -2141,44 +1841,26 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-      <c r="W3" s="12" t="s">
-        <v>71</v>
+      <c r="W3" s="12">
+        <v>0</v>
       </c>
       <c r="X3" s="12">
         <v>0</v>
       </c>
-      <c r="Y3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="36"/>
+      <c r="Y3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="4" ht="51.5" customHeight="1" spans="1:41">
+    <row r="4" ht="51.5" customHeight="1" spans="1:27">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
@@ -2202,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
@@ -2216,39 +1898,25 @@
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="Y4" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="Z4" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
-      <c r="AI4" s="16"/>
-      <c r="AJ4" s="16"/>
-      <c r="AK4" s="16"/>
-      <c r="AL4" s="16"/>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="37"/>
+        <v>48</v>
+      </c>
+      <c r="AA4" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="5" ht="51.5" customHeight="1" spans="1:41">
+    <row r="5" ht="51.5" customHeight="1" spans="1:27">
       <c r="A5" s="17" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2271,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M5" s="20"/>
       <c r="N5" s="20"/>
@@ -2285,39 +1953,25 @@
       <c r="V5" s="20"/>
       <c r="W5" s="20"/>
       <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
+      <c r="Y5" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="Z5" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="20"/>
-      <c r="AM5" s="20"/>
-      <c r="AN5" s="20"/>
-      <c r="AO5" s="38"/>
+        <v>53</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" ht="68" customHeight="1" spans="1:41">
+    <row r="6" ht="68" customHeight="1" spans="1:27">
       <c r="A6" s="9" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2340,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
@@ -2354,39 +2008,25 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="Z6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA6" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="36"/>
+        <v>58</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:41">
+    <row r="7" ht="51.5" customHeight="1" spans="1:27">
       <c r="A7" s="17" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2409,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -2423,36 +2063,22 @@
       <c r="V7" s="20"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
+      <c r="Y7" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="Z7" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA7" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="8" ht="51.5" customHeight="1" spans="1:41">
+    <row r="8" ht="51.5" customHeight="1" spans="1:27">
       <c r="A8" s="9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -2476,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
@@ -2490,34 +2116,20 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="36"/>
+      <c r="Y8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="9" ht="51.5" customHeight="1" spans="1:41">
+    <row r="9" ht="51.5" customHeight="1" spans="1:27">
       <c r="A9" s="17" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="20"/>
@@ -2541,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
@@ -2555,34 +2167,20 @@
       <c r="V9" s="20"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20"/>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="38"/>
+      <c r="Y9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="19" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="10" ht="51.5" customHeight="1" spans="1:41">
+    <row r="10" ht="51.5" customHeight="1" spans="1:27">
       <c r="A10" s="9" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -2606,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
@@ -2620,34 +2218,20 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="36"/>
+      <c r="Y10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" ht="51.5" customHeight="1" spans="1:41">
+    <row r="11" ht="51.5" customHeight="1" spans="1:27">
       <c r="A11" s="17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="20"/>
@@ -2671,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -2685,34 +2269,20 @@
       <c r="V11" s="20"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="18" t="s">
+      <c r="Y11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="38"/>
-    </row>
-    <row r="12" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -2736,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
@@ -2750,34 +2320,20 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="21" t="s">
+      <c r="Y12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A13" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
-      <c r="AN12" s="12"/>
-      <c r="AO12" s="36"/>
-    </row>
-    <row r="13" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A13" s="23" t="s">
-        <v>103</v>
-      </c>
       <c r="B13" s="24" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -2801,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
@@ -2815,34 +2371,20 @@
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="26"/>
-      <c r="AC13" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD13" s="26"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="26"/>
-      <c r="AG13" s="26"/>
-      <c r="AH13" s="26"/>
-      <c r="AI13" s="26"/>
-      <c r="AJ13" s="26"/>
-      <c r="AK13" s="26"/>
-      <c r="AL13" s="26"/>
-      <c r="AM13" s="26"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="39"/>
+      <c r="Y13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="29" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="14" ht="51.5" customHeight="1" spans="1:41">
+    <row r="14" ht="51.5" customHeight="1" spans="1:27">
       <c r="A14" s="23" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -2866,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
@@ -2880,36 +2422,22 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
       <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="24" t="s">
+      <c r="Y14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="AA14" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="29" t="s">
+      <c r="AA14" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="39"/>
-    </row>
-    <row r="15" ht="51.5" customHeight="1" spans="1:41">
-      <c r="A15" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>109</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
@@ -2933,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
@@ -2947,29 +2475,15 @@
       <c r="V15" s="26"/>
       <c r="W15" s="26"/>
       <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA15" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="39"/>
+      <c r="Y15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" s="29" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="16" ht="14.25"/>
   </sheetData>

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
   <si>
     <t>名字</t>
   </si>
@@ -271,6 +271,27 @@
   </si>
   <si>
     <t>abilities/public/public_npc_interact</t>
+  </si>
+  <si>
+    <t>public_blink</t>
+  </si>
+  <si>
+    <t>无敌跳跃</t>
+  </si>
+  <si>
+    <t>AbilityCharges 3</t>
+  </si>
+  <si>
+    <t>AbilityChargeRestoreTime 6</t>
+  </si>
+  <si>
+    <t>distance 500</t>
+  </si>
+  <si>
+    <t>abilities/public/public_blink</t>
+  </si>
+  <si>
+    <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET |  DOTA_ABILITY_BEHAVIOR_IMMEDIATE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_ROOT_DISABLES</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1336,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66EF2686-9FAC-424C-B5D3-BD1D76DD350B}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5CAE468D-29FB-495C-B294-ACA39387237C}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1618,10 +1639,10 @@
   <sheetPr/>
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D4" sqref="D4"/>
+      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1639,7 +1660,8 @@
     <col min="12" max="12" width="28.1416666666667" customWidth="1"/>
     <col min="13" max="13" width="14.175" customWidth="1"/>
     <col min="14" max="14" width="13.5083333333333" customWidth="1"/>
-    <col min="15" max="16" width="9.34166666666667" customWidth="1"/>
+    <col min="15" max="15" width="26.25" customWidth="1"/>
+    <col min="16" max="16" width="21.5" customWidth="1"/>
     <col min="17" max="17" width="5.675" customWidth="1"/>
     <col min="18" max="19" width="3.24166666666667" customWidth="1"/>
     <col min="20" max="20" width="5.675" style="2" customWidth="1"/>
@@ -2485,7 +2507,65 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" ht="14.25"/>
+    <row r="16" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
+        <v>1</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA16" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -213,7 +213,7 @@
     <t>物品兵器效果</t>
   </si>
   <si>
-    <t>abilities/arms/base_arms_ability</t>
+    <t>abilities/public/public_arms</t>
   </si>
   <si>
     <t>public_null_1</t>
@@ -1336,7 +1336,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5CAE468D-29FB-495C-B294-ACA39387237C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{073A61BE-2453-4ADA-8C39-57451EA05F45}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1637,12 +1637,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="topRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2566,6 +2566,7 @@
         <v>87</v>
       </c>
     </row>
+    <row r="17" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -282,7 +282,7 @@
     <t>AbilityCharges 3</t>
   </si>
   <si>
-    <t>AbilityChargeRestoreTime 6</t>
+    <t>AbilityChargeRestoreTime 10</t>
   </si>
   <si>
     <t>distance 500</t>
@@ -1336,7 +1336,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{073A61BE-2453-4ADA-8C39-57451EA05F45}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{212C1147-870D-4244-A322-36600C206E8C}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1639,10 +1639,10 @@
   <sheetPr/>
   <dimension ref="A1:AA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="X7" sqref="X7"/>
+      <selection pane="topRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excels/abilities/public.xlsx
+++ b/excels/abilities/public.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="public" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>名字</t>
   </si>
@@ -192,6 +192,9 @@
     <t>abilities/public/public_phase_move</t>
   </si>
   <si>
+    <t xml:space="preserve">DOTA_ABILITY_BEHAVIOR_UNIT_TARGET | DOTA_UNIT_TARGET_HERO </t>
+  </si>
+  <si>
     <t>public_attribute</t>
   </si>
   <si>
@@ -292,6 +295,21 @@
   </si>
   <si>
     <t>DOTA_ABILITY_BEHAVIOR_NO_TARGET |  DOTA_ABILITY_BEHAVIOR_IMMEDIATE | DOTA_ABILITY_BEHAVIOR_NOT_LEARNABLE | DOTA_ABILITY_BEHAVIOR_ROOT_DISABLES</t>
+  </si>
+  <si>
+    <t>public_blink_test</t>
+  </si>
+  <si>
+    <t>测试1</t>
+  </si>
+  <si>
+    <t>greevil_echo_slam</t>
+  </si>
+  <si>
+    <t>D 50</t>
+  </si>
+  <si>
+    <t>abilities/public/</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1117,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,6 +1129,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1120,6 +1147,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1144,9 +1174,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,17 +1189,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1336,7 +1354,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{212C1147-870D-4244-A322-36600C206E8C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{BE8C98E2-0A7A-4F14-874F-E20C3061DA7D}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
@@ -1637,12 +1655,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O16" sqref="O16"/>
+      <selection pane="topRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1659,7 +1677,7 @@
     <col min="11" max="11" width="15.175" customWidth="1"/>
     <col min="12" max="12" width="28.1416666666667" customWidth="1"/>
     <col min="13" max="13" width="14.175" customWidth="1"/>
-    <col min="14" max="14" width="13.5083333333333" customWidth="1"/>
+    <col min="14" max="14" width="19.75" customWidth="1"/>
     <col min="15" max="15" width="26.25" customWidth="1"/>
     <col min="16" max="16" width="21.5" customWidth="1"/>
     <col min="17" max="17" width="5.675" customWidth="1"/>
@@ -1701,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1721,10 +1739,10 @@
       <c r="V1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Y1" s="5" t="s">
@@ -1738,835 +1756,888 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="35" customHeight="1" spans="1:27">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="28">
-        <v>1</v>
-      </c>
-      <c r="O2" s="28">
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10">
         <v>2</v>
       </c>
-      <c r="P2" s="28">
+      <c r="P2" s="10">
         <v>3</v>
       </c>
-      <c r="Q2" s="28">
+      <c r="Q2" s="10">
         <v>4</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="X2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12">
-        <v>0</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+      <c r="L3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12">
-        <v>0</v>
-      </c>
-      <c r="X3" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="10" t="s">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15">
+        <v>0</v>
+      </c>
+      <c r="X3" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="21" t="s">
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>1</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="15" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="14" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20">
-        <v>0</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="20">
-        <v>1</v>
-      </c>
-      <c r="K5" s="20">
-        <v>0</v>
-      </c>
-      <c r="L5" s="19" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24">
+        <v>1</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="18" t="s">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AA5" s="19" t="s">
-        <v>44</v>
+      <c r="AA5" s="23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="6" ht="68" customHeight="1" spans="1:27">
-      <c r="A6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
-        <v>1</v>
-      </c>
-      <c r="K6" s="12">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="10" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA6" s="21" t="s">
+      <c r="Z6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
-      <c r="K7" s="20">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19" t="s">
+      <c r="B7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="18" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="24">
+        <v>1</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0</v>
+      </c>
+      <c r="J7" s="24">
+        <v>1</v>
+      </c>
+      <c r="K7" s="24">
+        <v>0</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA7" s="19" t="s">
+      <c r="Z7" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>1</v>
-      </c>
-      <c r="K8" s="12">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21" t="s">
+      <c r="B8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="10" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>1</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="21" t="s">
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="24">
+        <v>1</v>
+      </c>
+      <c r="I9" s="24">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24">
+        <v>1</v>
+      </c>
+      <c r="K9" s="24">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="18" t="s">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="19" t="s">
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>0</v>
-      </c>
-      <c r="J10" s="12">
-        <v>1</v>
-      </c>
-      <c r="K10" s="12">
-        <v>0</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="10" t="s">
+      <c r="B10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="21" t="s">
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="18" t="s">
+      <c r="B11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24">
+        <v>1</v>
+      </c>
+      <c r="I11" s="24">
+        <v>0</v>
+      </c>
+      <c r="J11" s="24">
+        <v>1</v>
+      </c>
+      <c r="K11" s="24">
+        <v>0</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="19" t="s">
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="10" t="s">
+      <c r="B12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="21" t="s">
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A13" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="A13" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="26">
-        <v>1</v>
-      </c>
-      <c r="I13" s="26">
-        <v>0</v>
-      </c>
-      <c r="J13" s="26">
-        <v>1</v>
-      </c>
-      <c r="K13" s="26">
-        <v>0</v>
-      </c>
-      <c r="L13" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="24" t="s">
+      <c r="B13" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1</v>
+      </c>
+      <c r="I13" s="29">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1</v>
+      </c>
+      <c r="K13" s="29">
+        <v>0</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="29" t="s">
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A14" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26">
-        <v>0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="26">
-        <v>1</v>
-      </c>
-      <c r="I14" s="26">
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
-        <v>1</v>
-      </c>
-      <c r="K14" s="26">
-        <v>0</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="24" t="s">
+      <c r="B14" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1</v>
+      </c>
+      <c r="I14" s="29">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
+      <c r="K14" s="29">
+        <v>0</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z14" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA14" s="29" t="s">
+      <c r="Z14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A15" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="26">
-        <v>1</v>
-      </c>
-      <c r="I15" s="26">
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
-        <v>1</v>
-      </c>
-      <c r="K15" s="26">
-        <v>0</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="24" t="s">
+      <c r="B15" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>1</v>
+      </c>
+      <c r="I15" s="29">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29">
+        <v>0</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z15" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA15" s="29" t="s">
+      <c r="Z15" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA15" s="30" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="26">
-        <v>1</v>
-      </c>
-      <c r="I16" s="26">
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="K16" s="26">
+      <c r="B16" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+      <c r="I16" s="29">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29">
+        <v>1</v>
+      </c>
+      <c r="K16" s="29">
         <v>0.5</v>
       </c>
-      <c r="L16" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="O16" s="26" t="s">
+      <c r="L16" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="P16" s="26" t="s">
+      <c r="O16" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="24" t="s">
+      <c r="P16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="Z16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA16" s="29" t="s">
+      <c r="Z16" s="29" t="s">
         <v>87</v>
       </c>
+      <c r="AA16" s="30" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="17" ht="14.25"/>
+    <row r="17" ht="51.5" customHeight="1" spans="1:27">
+      <c r="A17" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1</v>
+      </c>
+      <c r="I17" s="29">
+        <v>0</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1</v>
+      </c>
+      <c r="K17" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA17" s="30"/>
+    </row>
+    <row r="18" ht="14.25"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A2">
     <cfRule type="containsText" dxfId="0" priority="4" operator="between" text="arms_t4">
